--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.020620-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.020620-1.xlsx_with_dialog_acts.xlsx
@@ -1399,12 +1399,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2117,12 +2117,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2369,12 +2369,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2621,12 +2621,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3129,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3717,12 +3717,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3801,12 +3801,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4695,12 +4695,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5379,12 +5379,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5631,12 +5631,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6093,12 +6093,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6933,12 +6933,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7315,12 +7315,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7735,12 +7735,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7861,12 +7861,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8491,12 +8491,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9373,12 +9373,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9667,12 +9667,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10885,12 +10885,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
